--- a/Jira_TraceabilityMatrix.xlsx
+++ b/Jira_TraceabilityMatrix.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,27 +418,27 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ST3MR-15 - As a shop user i want to have the Add to favourites option - 1 defect</v>
+        <v>ST3MR-5 - As a shop user i want to have the option Other in the Categories module in order to buy products - 1 defect</v>
       </c>
       <c r="B2" t="str">
-        <v>ST3MR-16 - Verify that the user can add products to favourites</v>
+        <v>ST3MR-8 - Verify that the Other Tools products sort is visible</v>
       </c>
       <c r="C2" t="str">
-        <v>eCommerce - Hand Tools  - FAIL</v>
+        <v>eCommerce - Other Tools  - FAIL</v>
       </c>
       <c r="D2" t="str">
-        <v>ST3MR-17 - In Progress - The Add to Favourites command doesn't work  - step</v>
+        <v>ST3MR-10 - In Progress - The Sort products dropdown box don't show nothing</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ST3MR-14 - As a shop user i want to have the option Add to cart in order to buy products</v>
+        <v>ST3MR-5 - As a shop user i want to have the option Other in the Categories module in order to buy products</v>
       </c>
       <c r="B3" t="str">
-        <v>ST3MR-13 - Verify that the user can add products to cart</v>
+        <v>ST3MR-20 - Verify the Categories module on Homepage</v>
       </c>
       <c r="C3" t="str">
-        <v>eCommerce - Hand Tools  - PASS</v>
+        <v>eCommerce - Other Tools  - PASS</v>
       </c>
       <c r="D3" t="str">
         <v>None</v>
@@ -446,27 +446,27 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>ST3MR-12 - As a shop user i want to have the Sort option for sorting products - 1 defect</v>
+        <v>ST3MR-5 - As a shop user i want to have the option Other in the Categories module in order to buy products</v>
       </c>
       <c r="B4" t="str">
-        <v>ST3MR-8 - Verify that the Hand Tools products sort is visible</v>
+        <v>ST3MR-21 - Verify the Other Tools on Categories module</v>
       </c>
       <c r="C4" t="str">
-        <v>eCommerce - Hand Tools  - FAIL</v>
+        <v>eCommerce - Other Tools  - PASS</v>
       </c>
       <c r="D4" t="str">
-        <v>ST3MR-10 - In Progress - The Sort products dropdown box don't show nothing - step</v>
+        <v>None</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>ST3MR-11 - As a shop user i want to have the Filters option for filtering products</v>
+        <v>ST3MR-3 - As a shop user i want to have the option Power Tools in the Categories module in order to buy products</v>
       </c>
       <c r="B5" t="str">
-        <v>ST3MR-9 - Verify that the Hand Tools products filters is visible</v>
+        <v>ST3MR-9 - Verify that the Power Tools products filters is visible</v>
       </c>
       <c r="C5" t="str">
-        <v>eCommerce - Hand Tools  - PASS</v>
+        <v>eCommerce - Power Tools  - PASS</v>
       </c>
       <c r="D5" t="str">
         <v>None</v>
@@ -474,21 +474,119 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>ST3MR-6 - As a shop user i want to have included subcategories within Hand Tools to further organize products</v>
+        <v>ST3MR-3 - As a shop user i want to have the option Power Tools in the Categories module in order to buy products</v>
       </c>
       <c r="B6" t="str">
+        <v>ST3MR-18 - Verify the Categories module on Homepage</v>
+      </c>
+      <c r="C6" t="str">
+        <v>eCommerce - Power Tools  - PASS</v>
+      </c>
+      <c r="D6" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>ST3MR-3 - As a shop user i want to have the option Power Tools in the Categories module in order to buy products</v>
+      </c>
+      <c r="B7" t="str">
+        <v>ST3MR-19 - Verify the Power Tools on Categories module</v>
+      </c>
+      <c r="C7" t="str">
+        <v>eCommerce - Power Tools  - PASS</v>
+      </c>
+      <c r="D7" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>ST3MR-2 - As a shop user i want to have the option Hand Tools in the Categories module in order to buy products</v>
+      </c>
+      <c r="B8" t="str">
+        <v>ST3MR-13 - Verify that the user can add products to cart</v>
+      </c>
+      <c r="C8" t="str">
+        <v>eCommerce - Hand Tools  - PASS</v>
+      </c>
+      <c r="D8" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>ST3MR-2 - As a shop user i want to have the option Hand Tools in the Categories module in order to buy products - 1 defect</v>
+      </c>
+      <c r="B9" t="str">
+        <v>ST3MR-16 - Verify that the user can add products to favourites</v>
+      </c>
+      <c r="C9" t="str">
+        <v>eCommerce - Hand Tools  - FAIL</v>
+      </c>
+      <c r="D9" t="str">
+        <v>ST3MR-17 - In Progress - The Add to Favourites command doesn't work  - step</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>ST3MR-2 - As a shop user i want to have the option Hand Tools in the Categories module in order to buy products</v>
+      </c>
+      <c r="B10" t="str">
         <v>ST3MR-7 - Verify all products from Hand Tools category and products detail page</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C10" t="str">
         <v>eCommerce - Hand Tools  - PASS</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D10" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>ST3MR-2 - As a shop user i want to have the option Hand Tools in the Categories module in order to buy products</v>
+      </c>
+      <c r="B11" t="str">
+        <v>ST3MR-24 - Verify the Hand Tool product can be selected</v>
+      </c>
+      <c r="C11" t="str">
+        <v>eCommerce - Hand Tools  - PASS</v>
+      </c>
+      <c r="D11" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>ST3MR-2 - As a shop user i want to have the option Hand Tools in the Categories module in order to buy products</v>
+      </c>
+      <c r="B12" t="str">
+        <v>ST3MR-22 - Verify the Categories module on Homepage</v>
+      </c>
+      <c r="C12" t="str">
+        <v>eCommerce - Hand Tools  - PASS</v>
+      </c>
+      <c r="D12" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>ST3MR-2 - As a shop user i want to have the option Hand Tools in the Categories module in order to buy products</v>
+      </c>
+      <c r="B13" t="str">
+        <v>ST3MR-23 - Verify the Hand Tools on Categories module</v>
+      </c>
+      <c r="C13" t="str">
+        <v>eCommerce - Hand Tools  - PASS</v>
+      </c>
+      <c r="D13" t="str">
         <v>None</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D13"/>
   </ignoredErrors>
 </worksheet>
 </file>